--- a/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
+++ b/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F4F873-4367-415C-ABF0-BFA9CB4283F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891DFB50-B31F-458C-A6B7-78767651F15A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdos en Destete" sheetId="1" r:id="rId1"/>
@@ -159,30 +159,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF36D25F"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -199,8 +175,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,6 +223,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -231,47 +244,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -291,6 +417,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BBB96-BF27-4FA9-8CD9-EC1B34BB26B9}" name="Tabla1" displayName="Tabla1" ref="A2:C3" insertRow="1" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A2:C3" xr:uid="{39FF341A-BA77-4F10-9E8E-749B29157F36}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5D9BD696-4E5C-4BD6-8BAD-E4D12571B563}" name="Capa"/>
+    <tableColumn id="2" xr3:uid="{94A4856C-28C6-4EBC-9BD7-991D3330B270}" name="No. Cerdos llegan a Destete"/>
+    <tableColumn id="3" xr3:uid="{5ABB1250-123D-4A54-A527-3178FF11D096}" name="Kilos llegada a Destete"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22AA869-4768-403C-B464-B8E4B754D479}" name="FinDestete" displayName="FinDestete" ref="E2:K3" insertRow="1" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="E2:K3" xr:uid="{FB5E409C-805A-48AC-A2B8-B35110DE321D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{70EF5663-423C-4F45-A70A-2A358422DA8D}" name="Capa"/>
+    <tableColumn id="2" xr3:uid="{895652A7-CEEC-42F0-8BC3-6278C6F9ADBE}" name="No. Cerdos van Engorda"/>
+    <tableColumn id="3" xr3:uid="{3EB72128-7CBC-44BA-8AD2-D95643DD05E3}" name="Kilos Salida de  Destete"/>
+    <tableColumn id="4" xr3:uid="{4323ED1A-8C8E-483D-AACB-983164A03627}" name="Alimento consumido"/>
+    <tableColumn id="5" xr3:uid="{B4F7282A-8C79-4490-8FD8-DA1697B9DF33}" name="Costo Alimento"/>
+    <tableColumn id="6" xr3:uid="{905C7F46-1524-418C-899D-56BBE68B3835}" name="Gastos"/>
+    <tableColumn id="7" xr3:uid="{F49CE574-6190-4632-8562-87F735E19F8F}" name="Fecha transpaso a engorda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35837D8A-11F8-4E6C-9701-8BB123FB48F3}" name="Engorda" displayName="Engorda" ref="A2:L3" insertRow="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A2:L3" xr:uid="{08B643A4-E53D-4751-BA89-6E4CFD24B581}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{EA5987A4-1EC2-4D2E-B641-8812D45E9E82}" name="Capa"/>
+    <tableColumn id="2" xr3:uid="{EE7561E2-8198-49F7-8B5A-6EBB91D33612}" name="Kilos Vendidos"/>
+    <tableColumn id="3" xr3:uid="{E112D12F-BC10-4DCD-A949-3EBE61CF711E}" name="Cabezas Vendidos"/>
+    <tableColumn id="4" xr3:uid="{5FBA5528-533F-4AC8-89BE-62E80D722919}" name="Ultima Fecha Venta"/>
+    <tableColumn id="5" xr3:uid="{D513E5BD-B120-4712-86A0-FF97030DBBF5}" name="Importe Venta"/>
+    <tableColumn id="6" xr3:uid="{6929DF0D-08AF-4304-860A-3A82E119DC03}" name="Importe Costo"/>
+    <tableColumn id="7" xr3:uid="{4FF6EA3C-0C50-4A7F-A027-C72F080BA76A}" name="Gasto"/>
+    <tableColumn id="8" xr3:uid="{AA3C48FE-8BB5-47CA-82E3-5500F6AE52A9}" name="Alimento Consumido"/>
+    <tableColumn id="9" xr3:uid="{AACACA1A-E54F-4672-A393-0AC61B1A3B1F}" name="Costo Alimento"/>
+    <tableColumn id="10" xr3:uid="{DF1A600C-91AB-4310-AB6A-F0B73919D8F1}" name="Costo Med. Preventivo"/>
+    <tableColumn id="11" xr3:uid="{C746AF78-6E64-44F0-BA60-0BBE3DC3EAF2}" name="Costo Med. Correctivo"/>
+    <tableColumn id="12" xr3:uid="{D37A2348-EFD6-4D4F-9200-F0171D621466}" name="Costo Med. General"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,18 +733,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="10" width="21.85546875" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
@@ -580,51 +757,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="1"/>
@@ -635,6 +812,10 @@
     <mergeCell ref="E1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -642,77 +823,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B01515-E094-4376-835D-C6174FB0F342}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -721,5 +903,8 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
+++ b/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891DFB50-B31F-458C-A6B7-78767651F15A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C1E626-22DF-41EA-8AE4-02A920BDD5BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdos en Destete" sheetId="1" r:id="rId1"/>
     <sheet name="Cerdos en Engorda" sheetId="2" r:id="rId2"/>
+    <sheet name="Muerte" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Capa</t>
   </si>
@@ -92,13 +93,25 @@
   </si>
   <si>
     <t>Cerdo Engorda (Al finalizar venta de capa)</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>No. Muertes</t>
+  </si>
+  <si>
+    <t>Kilos</t>
+  </si>
+  <si>
+    <t>Muerte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +150,23 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +224,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6C61"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,19 +280,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,13 +309,94 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF6C61"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -322,16 +434,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </bottom>
+        <top style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -371,13 +483,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="8" tint="-0.499984740745262"/>
         </top>
@@ -390,17 +495,11 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6C61"/>
       <color rgb="FF0066FF"/>
       <color rgb="FF36D25F"/>
       <color rgb="FFF23A2C"/>
@@ -420,7 +519,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BBB96-BF27-4FA9-8CD9-EC1B34BB26B9}" name="Tabla1" displayName="Tabla1" ref="A2:C3" insertRow="1" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BBB96-BF27-4FA9-8CD9-EC1B34BB26B9}" name="Tabla1" displayName="Tabla1" ref="A2:C3" insertRow="1" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A2:C3" xr:uid="{39FF341A-BA77-4F10-9E8E-749B29157F36}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5D9BD696-4E5C-4BD6-8BAD-E4D12571B563}" name="Capa"/>
@@ -432,7 +531,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22AA869-4768-403C-B464-B8E4B754D479}" name="FinDestete" displayName="FinDestete" ref="E2:K3" insertRow="1" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22AA869-4768-403C-B464-B8E4B754D479}" name="FinDestete" displayName="FinDestete" ref="E2:K3" insertRow="1" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="E2:K3" xr:uid="{FB5E409C-805A-48AC-A2B8-B35110DE321D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{70EF5663-423C-4F45-A70A-2A358422DA8D}" name="Capa"/>
@@ -448,7 +547,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35837D8A-11F8-4E6C-9701-8BB123FB48F3}" name="Engorda" displayName="Engorda" ref="A2:L3" insertRow="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35837D8A-11F8-4E6C-9701-8BB123FB48F3}" name="Engorda" displayName="Engorda" ref="A2:L3" insertRow="1" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A2:L3" xr:uid="{08B643A4-E53D-4751-BA89-6E4CFD24B581}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EA5987A4-1EC2-4D2E-B641-8812D45E9E82}" name="Capa"/>
@@ -463,6 +562,19 @@
     <tableColumn id="10" xr3:uid="{DF1A600C-91AB-4310-AB6A-F0B73919D8F1}" name="Costo Med. Preventivo"/>
     <tableColumn id="11" xr3:uid="{C746AF78-6E64-44F0-BA60-0BBE3DC3EAF2}" name="Costo Med. Correctivo"/>
     <tableColumn id="12" xr3:uid="{D37A2348-EFD6-4D4F-9200-F0171D621466}" name="Costo Med. General"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3BE2BEB-C803-4857-9F48-D878B407EBB0}" name="MuerteCerdo" displayName="MuerteCerdo" ref="A2:D3" insertRow="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A2:D3" xr:uid="{EDF9D112-F90B-4960-B6AF-354F6347DBC4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DFFD7055-F0E3-47F1-8B04-FFC32F2996DC}" name="Capa"/>
+    <tableColumn id="2" xr3:uid="{B5EA53EC-5E83-4990-A207-367A67A41C84}" name="Fecha"/>
+    <tableColumn id="3" xr3:uid="{6E498805-A9BC-40E2-9502-864079603082}" name="No. Muertes"/>
+    <tableColumn id="4" xr3:uid="{4040F0AD-A9A8-45D2-B0F1-32CBB69BF7E9}" name="Kilos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -757,51 +869,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="1"/>
@@ -824,7 +936,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,56 +957,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -907,4 +1019,52 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2035E6A-7D83-4D3E-9FF0-0A3D3647DA40}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
+++ b/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C1E626-22DF-41EA-8AE4-02A920BDD5BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD77BD81-A5E7-4701-9125-41A287321276}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdos en Destete" sheetId="1" r:id="rId1"/>
     <sheet name="Cerdos en Engorda" sheetId="2" r:id="rId2"/>
     <sheet name="Muerte" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Capa</t>
   </si>
@@ -105,13 +105,76 @@
   </si>
   <si>
     <t>Muerte</t>
+  </si>
+  <si>
+    <t>GV1-32-060820</t>
+  </si>
+  <si>
+    <t>GV1-33-110820</t>
+  </si>
+  <si>
+    <t>GV1-34-170820</t>
+  </si>
+  <si>
+    <t>GV1-40-230920</t>
+  </si>
+  <si>
+    <t>GV4-28-080720</t>
+  </si>
+  <si>
+    <t>GV1-01-010120</t>
+  </si>
+  <si>
+    <t>GV5-34-200820</t>
+  </si>
+  <si>
+    <t>GV5-39-210920</t>
+  </si>
+  <si>
+    <t>GV5-37-070920</t>
+  </si>
+  <si>
+    <t>GV1-08-210220</t>
+  </si>
+  <si>
+    <t>GV1-26-230620</t>
+  </si>
+  <si>
+    <t>GV1-27-300620</t>
+  </si>
+  <si>
+    <t>GV1-30-170720</t>
+  </si>
+  <si>
+    <t>GV1-31-300720</t>
+  </si>
+  <si>
+    <t>GV1-38-120920</t>
+  </si>
+  <si>
+    <t>GV1-41-041020</t>
+  </si>
+  <si>
+    <t>GV1-42-131020</t>
+  </si>
+  <si>
+    <t>GV1-43-201020</t>
+  </si>
+  <si>
+    <t>GV1-44-201020</t>
+  </si>
+  <si>
+    <t>GV4-26-190620</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +227,13 @@
       <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -277,10 +347,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -311,6 +382,12 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,17 +400,34 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -367,20 +461,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -519,8 +599,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BBB96-BF27-4FA9-8CD9-EC1B34BB26B9}" name="Tabla1" displayName="Tabla1" ref="A2:C3" insertRow="1" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A2:C3" xr:uid="{39FF341A-BA77-4F10-9E8E-749B29157F36}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BBB96-BF27-4FA9-8CD9-EC1B34BB26B9}" name="Tabla1" displayName="Tabla1" ref="A2:C22" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A2:C22" xr:uid="{39FF341A-BA77-4F10-9E8E-749B29157F36}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5D9BD696-4E5C-4BD6-8BAD-E4D12571B563}" name="Capa"/>
     <tableColumn id="2" xr3:uid="{94A4856C-28C6-4EBC-9BD7-991D3330B270}" name="No. Cerdos llegan a Destete"/>
@@ -531,8 +611,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22AA869-4768-403C-B464-B8E4B754D479}" name="FinDestete" displayName="FinDestete" ref="E2:K3" insertRow="1" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="E2:K3" xr:uid="{FB5E409C-805A-48AC-A2B8-B35110DE321D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22AA869-4768-403C-B464-B8E4B754D479}" name="FinDestete" displayName="FinDestete" ref="E2:K22" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="E2:K22" xr:uid="{FB5E409C-805A-48AC-A2B8-B35110DE321D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{70EF5663-423C-4F45-A70A-2A358422DA8D}" name="Capa"/>
     <tableColumn id="2" xr3:uid="{895652A7-CEEC-42F0-8BC3-6278C6F9ADBE}" name="No. Cerdos van Engorda"/>
@@ -547,15 +627,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35837D8A-11F8-4E6C-9701-8BB123FB48F3}" name="Engorda" displayName="Engorda" ref="A2:L3" insertRow="1" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A2:L3" xr:uid="{08B643A4-E53D-4751-BA89-6E4CFD24B581}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35837D8A-11F8-4E6C-9701-8BB123FB48F3}" name="Engorda" displayName="Engorda" ref="A2:L25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A2:L25" xr:uid="{08B643A4-E53D-4751-BA89-6E4CFD24B581}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EA5987A4-1EC2-4D2E-B641-8812D45E9E82}" name="Capa"/>
     <tableColumn id="2" xr3:uid="{EE7561E2-8198-49F7-8B5A-6EBB91D33612}" name="Kilos Vendidos"/>
     <tableColumn id="3" xr3:uid="{E112D12F-BC10-4DCD-A949-3EBE61CF711E}" name="Cabezas Vendidos"/>
     <tableColumn id="4" xr3:uid="{5FBA5528-533F-4AC8-89BE-62E80D722919}" name="Ultima Fecha Venta"/>
-    <tableColumn id="5" xr3:uid="{D513E5BD-B120-4712-86A0-FF97030DBBF5}" name="Importe Venta"/>
-    <tableColumn id="6" xr3:uid="{6929DF0D-08AF-4304-860A-3A82E119DC03}" name="Importe Costo"/>
+    <tableColumn id="5" xr3:uid="{D513E5BD-B120-4712-86A0-FF97030DBBF5}" name="Importe Venta" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{6929DF0D-08AF-4304-860A-3A82E119DC03}" name="Importe Costo" dataCellStyle="Moneda"/>
     <tableColumn id="7" xr3:uid="{4FF6EA3C-0C50-4A7F-A027-C72F080BA76A}" name="Gasto"/>
     <tableColumn id="8" xr3:uid="{AA3C48FE-8BB5-47CA-82E3-5500F6AE52A9}" name="Alimento Consumido"/>
     <tableColumn id="9" xr3:uid="{AACACA1A-E54F-4672-A393-0AC61B1A3B1F}" name="Costo Alimento"/>
@@ -568,7 +648,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3BE2BEB-C803-4857-9F48-D878B407EBB0}" name="MuerteCerdo" displayName="MuerteCerdo" ref="A2:D3" insertRow="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3BE2BEB-C803-4857-9F48-D878B407EBB0}" name="MuerteCerdo" displayName="MuerteCerdo" ref="A2:D3" insertRow="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A2:D3" xr:uid="{EDF9D112-F90B-4960-B6AF-354F6347DBC4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DFFD7055-F0E3-47F1-8B04-FFC32F2996DC}" name="Capa"/>
@@ -843,48 +923,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="10" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -917,6 +997,400 @@
         <v>14</v>
       </c>
       <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>524</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>102</v>
+      </c>
+      <c r="G3">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>420</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>104</v>
+      </c>
+      <c r="G8">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>285</v>
+      </c>
+      <c r="C9">
+        <v>1140</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>280</v>
+      </c>
+      <c r="G9">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>448</v>
+      </c>
+      <c r="C10">
+        <v>1792</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>447</v>
+      </c>
+      <c r="G10">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>107.9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>117</v>
+      </c>
+      <c r="C14">
+        <v>1006.2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>116</v>
+      </c>
+      <c r="G14">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>115</v>
+      </c>
+      <c r="C15">
+        <v>874</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>114</v>
+      </c>
+      <c r="G15">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>103</v>
+      </c>
+      <c r="C16">
+        <v>813.7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>102</v>
+      </c>
+      <c r="G16">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>4.3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>6.2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>25.2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>5.4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>5.4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -933,46 +1407,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B01515-E094-4376-835D-C6174FB0F342}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -985,10 +1459,10 @@
       <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -1008,6 +1482,406 @@
       </c>
       <c r="L2" s="10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>13411.5</v>
+      </c>
+      <c r="C3">
+        <v>109</v>
+      </c>
+      <c r="D3" s="18">
+        <v>387592.71</v>
+      </c>
+      <c r="E3" s="21">
+        <v>286845.59999999998</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1293806.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>490.5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18">
+        <v>44223</v>
+      </c>
+      <c r="E4" s="21">
+        <v>16677</v>
+      </c>
+      <c r="F4" s="21">
+        <v>10576.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>44222</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2070</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2099.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>724.6</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="18">
+        <v>44216</v>
+      </c>
+      <c r="E6" s="21">
+        <v>25570.799999999999</v>
+      </c>
+      <c r="F6" s="21">
+        <v>25024.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>226.4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18">
+        <v>44223</v>
+      </c>
+      <c r="E7" s="21">
+        <v>7697.6</v>
+      </c>
+      <c r="F7" s="21">
+        <v>6713.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>12164</v>
+      </c>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8" s="18">
+        <v>44208</v>
+      </c>
+      <c r="E8" s="21">
+        <v>422405.2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>279017.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>42003.12</v>
+      </c>
+      <c r="C9">
+        <v>285</v>
+      </c>
+      <c r="D9" s="18">
+        <v>44222</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1126894.69</v>
+      </c>
+      <c r="F9" s="21">
+        <v>613446.93000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>57323.8</v>
+      </c>
+      <c r="C10">
+        <v>448</v>
+      </c>
+      <c r="D10" s="18">
+        <v>44223</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1841936.71</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1357161.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>224</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>44207</v>
+      </c>
+      <c r="E11" s="21">
+        <v>7952</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2345.5100000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>1082</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="18">
+        <v>44202</v>
+      </c>
+      <c r="E12" s="21">
+        <v>37575.5</v>
+      </c>
+      <c r="F12" s="21">
+        <v>29230.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>1386.5</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13" s="18">
+        <v>44202</v>
+      </c>
+      <c r="E13" s="21">
+        <v>49320.75</v>
+      </c>
+      <c r="F13" s="21">
+        <v>37901.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>13432.2</v>
+      </c>
+      <c r="C14">
+        <v>117</v>
+      </c>
+      <c r="D14" s="18">
+        <v>44225</v>
+      </c>
+      <c r="E14" s="21">
+        <v>468568.2</v>
+      </c>
+      <c r="F14" s="21">
+        <v>152282.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>12982.8</v>
+      </c>
+      <c r="C15">
+        <v>115</v>
+      </c>
+      <c r="D15" s="18">
+        <v>44217</v>
+      </c>
+      <c r="E15" s="21">
+        <v>455189.3</v>
+      </c>
+      <c r="F15" s="21">
+        <v>538203.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>13033.5</v>
+      </c>
+      <c r="C16">
+        <v>103</v>
+      </c>
+      <c r="D16" s="18">
+        <v>44223</v>
+      </c>
+      <c r="E16" s="21">
+        <v>373867.54</v>
+      </c>
+      <c r="F16" s="21">
+        <v>285813.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18">
+        <v>44207</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1313.5</v>
+      </c>
+      <c r="F17" s="21">
+        <v>1872.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18">
+        <v>44202</v>
+      </c>
+      <c r="E18" s="21">
+        <v>985.5</v>
+      </c>
+      <c r="F18" s="21">
+        <v>1728.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18">
+        <v>44207</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1135</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1619.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>68.5</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="18">
+        <v>44207</v>
+      </c>
+      <c r="E20" s="21">
+        <v>3814.25</v>
+      </c>
+      <c r="F20" s="21">
+        <v>3674.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18">
+        <v>44222</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1380</v>
+      </c>
+      <c r="F21" s="21">
+        <v>1322.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>122</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18">
+        <v>44208</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>3090.17</v>
       </c>
     </row>
   </sheetData>
@@ -1026,35 +1900,35 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>24</v>
       </c>
     </row>

--- a/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
+++ b/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD77BD81-A5E7-4701-9125-41A287321276}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A86276-A2E8-457E-82BD-29853683B9AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdos en Destete" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>Capa</t>
   </si>
@@ -370,13 +370,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,6 +382,14 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,20 +402,71 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -561,20 +614,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -599,7 +638,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BBB96-BF27-4FA9-8CD9-EC1B34BB26B9}" name="Tabla1" displayName="Tabla1" ref="A2:C22" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BBB96-BF27-4FA9-8CD9-EC1B34BB26B9}" name="Tabla1" displayName="Tabla1" ref="A2:C22" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
   <autoFilter ref="A2:C22" xr:uid="{39FF341A-BA77-4F10-9E8E-749B29157F36}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5D9BD696-4E5C-4BD6-8BAD-E4D12571B563}" name="Capa"/>
@@ -611,23 +650,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22AA869-4768-403C-B464-B8E4B754D479}" name="FinDestete" displayName="FinDestete" ref="E2:K22" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22AA869-4768-403C-B464-B8E4B754D479}" name="FinDestete" displayName="FinDestete" ref="E2:K22" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="E2:K22" xr:uid="{FB5E409C-805A-48AC-A2B8-B35110DE321D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{70EF5663-423C-4F45-A70A-2A358422DA8D}" name="Capa"/>
     <tableColumn id="2" xr3:uid="{895652A7-CEEC-42F0-8BC3-6278C6F9ADBE}" name="No. Cerdos van Engorda"/>
     <tableColumn id="3" xr3:uid="{3EB72128-7CBC-44BA-8AD2-D95643DD05E3}" name="Kilos Salida de  Destete"/>
     <tableColumn id="4" xr3:uid="{4323ED1A-8C8E-483D-AACB-983164A03627}" name="Alimento consumido"/>
-    <tableColumn id="5" xr3:uid="{B4F7282A-8C79-4490-8FD8-DA1697B9DF33}" name="Costo Alimento"/>
-    <tableColumn id="6" xr3:uid="{905C7F46-1524-418C-899D-56BBE68B3835}" name="Gastos"/>
-    <tableColumn id="7" xr3:uid="{F49CE574-6190-4632-8562-87F735E19F8F}" name="Fecha transpaso a engorda"/>
+    <tableColumn id="5" xr3:uid="{B4F7282A-8C79-4490-8FD8-DA1697B9DF33}" name="Costo Alimento" dataDxfId="1" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{905C7F46-1524-418C-899D-56BBE68B3835}" name="Gastos" dataDxfId="0" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{F49CE574-6190-4632-8562-87F735E19F8F}" name="Fecha transpaso a engorda" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35837D8A-11F8-4E6C-9701-8BB123FB48F3}" name="Engorda" displayName="Engorda" ref="A2:L25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35837D8A-11F8-4E6C-9701-8BB123FB48F3}" name="Engorda" displayName="Engorda" ref="A2:L25" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A2:L25" xr:uid="{08B643A4-E53D-4751-BA89-6E4CFD24B581}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EA5987A4-1EC2-4D2E-B641-8812D45E9E82}" name="Capa"/>
@@ -636,20 +675,20 @@
     <tableColumn id="4" xr3:uid="{5FBA5528-533F-4AC8-89BE-62E80D722919}" name="Ultima Fecha Venta"/>
     <tableColumn id="5" xr3:uid="{D513E5BD-B120-4712-86A0-FF97030DBBF5}" name="Importe Venta" dataCellStyle="Moneda"/>
     <tableColumn id="6" xr3:uid="{6929DF0D-08AF-4304-860A-3A82E119DC03}" name="Importe Costo" dataCellStyle="Moneda"/>
-    <tableColumn id="7" xr3:uid="{4FF6EA3C-0C50-4A7F-A027-C72F080BA76A}" name="Gasto"/>
+    <tableColumn id="7" xr3:uid="{4FF6EA3C-0C50-4A7F-A027-C72F080BA76A}" name="Gasto" dataCellStyle="Moneda"/>
     <tableColumn id="8" xr3:uid="{AA3C48FE-8BB5-47CA-82E3-5500F6AE52A9}" name="Alimento Consumido"/>
-    <tableColumn id="9" xr3:uid="{AACACA1A-E54F-4672-A393-0AC61B1A3B1F}" name="Costo Alimento"/>
-    <tableColumn id="10" xr3:uid="{DF1A600C-91AB-4310-AB6A-F0B73919D8F1}" name="Costo Med. Preventivo"/>
-    <tableColumn id="11" xr3:uid="{C746AF78-6E64-44F0-BA60-0BBE3DC3EAF2}" name="Costo Med. Correctivo"/>
-    <tableColumn id="12" xr3:uid="{D37A2348-EFD6-4D4F-9200-F0171D621466}" name="Costo Med. General"/>
+    <tableColumn id="9" xr3:uid="{AACACA1A-E54F-4672-A393-0AC61B1A3B1F}" name="Costo Alimento" dataCellStyle="Moneda"/>
+    <tableColumn id="10" xr3:uid="{DF1A600C-91AB-4310-AB6A-F0B73919D8F1}" name="Costo Med. Preventivo" dataCellStyle="Moneda"/>
+    <tableColumn id="11" xr3:uid="{C746AF78-6E64-44F0-BA60-0BBE3DC3EAF2}" name="Costo Med. Correctivo" dataCellStyle="Moneda"/>
+    <tableColumn id="12" xr3:uid="{D37A2348-EFD6-4D4F-9200-F0171D621466}" name="Costo Med. General" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3BE2BEB-C803-4857-9F48-D878B407EBB0}" name="MuerteCerdo" displayName="MuerteCerdo" ref="A2:D3" insertRow="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:D3" xr:uid="{EDF9D112-F90B-4960-B6AF-354F6347DBC4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3BE2BEB-C803-4857-9F48-D878B407EBB0}" name="MuerteCerdo" displayName="MuerteCerdo" ref="A2:D22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A2:D22" xr:uid="{EDF9D112-F90B-4960-B6AF-354F6347DBC4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DFFD7055-F0E3-47F1-8B04-FFC32F2996DC}" name="Capa"/>
     <tableColumn id="2" xr3:uid="{B5EA53EC-5E83-4990-A207-367A67A41C84}" name="Fecha"/>
@@ -925,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,20 +988,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1003,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>524</v>
@@ -1012,10 +1051,22 @@
         <v>26</v>
       </c>
       <c r="F3">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G3">
         <v>1365</v>
+      </c>
+      <c r="H3">
+        <v>1205</v>
+      </c>
+      <c r="I3" s="15">
+        <v>125464</v>
+      </c>
+      <c r="J3" s="15">
+        <v>34782</v>
+      </c>
+      <c r="K3" s="12">
+        <v>44177.71</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1023,19 +1074,31 @@
         <v>28</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>64.5</v>
+      </c>
+      <c r="H4">
+        <v>897</v>
+      </c>
+      <c r="I4" s="15">
+        <v>8746</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2452</v>
+      </c>
+      <c r="K4" s="12">
+        <v>44162</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1043,10 +1106,10 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -1055,7 +1118,19 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16.8</v>
+      </c>
+      <c r="H5">
+        <v>634</v>
+      </c>
+      <c r="I5" s="15">
+        <v>3644</v>
+      </c>
+      <c r="J5" s="15">
+        <v>587</v>
+      </c>
+      <c r="K5" s="12">
+        <v>44130</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1063,10 +1138,10 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -1075,7 +1150,19 @@
         <v>7</v>
       </c>
       <c r="G6">
-        <v>135</v>
+        <v>142.80000000000001</v>
+      </c>
+      <c r="H6">
+        <v>1020</v>
+      </c>
+      <c r="I6" s="15">
+        <v>128924</v>
+      </c>
+      <c r="J6" s="15">
+        <v>3364</v>
+      </c>
+      <c r="K6" s="12">
+        <v>43850</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1083,19 +1170,31 @@
         <v>31</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>57</v>
+        <v>58.25</v>
+      </c>
+      <c r="H7">
+        <v>354</v>
+      </c>
+      <c r="I7" s="15">
+        <v>2024</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1546</v>
+      </c>
+      <c r="K7" s="12">
+        <v>44223</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1103,19 +1202,31 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C8">
-        <v>420</v>
+        <v>590</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
       </c>
       <c r="F8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8">
-        <v>1450</v>
+        <v>1554.3</v>
+      </c>
+      <c r="H8">
+        <v>1354</v>
+      </c>
+      <c r="I8" s="15">
+        <v>78953</v>
+      </c>
+      <c r="J8" s="15">
+        <v>24980</v>
+      </c>
+      <c r="K8" s="12">
+        <v>44208</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1123,19 +1234,31 @@
         <v>33</v>
       </c>
       <c r="B9">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C9">
-        <v>1140</v>
+        <v>1622.5</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
       </c>
       <c r="F9">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G9">
         <v>2540</v>
+      </c>
+      <c r="H9">
+        <v>2140</v>
+      </c>
+      <c r="I9" s="15">
+        <v>65410</v>
+      </c>
+      <c r="J9" s="15">
+        <v>6845</v>
+      </c>
+      <c r="K9" s="12">
+        <v>44222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1143,19 +1266,31 @@
         <v>34</v>
       </c>
       <c r="B10">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C10">
-        <v>1792</v>
+        <v>2808.6</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
       <c r="F10">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G10">
         <v>2987</v>
+      </c>
+      <c r="H10">
+        <v>3541</v>
+      </c>
+      <c r="I10" s="15">
+        <v>36571</v>
+      </c>
+      <c r="J10" s="15">
+        <v>7456</v>
+      </c>
+      <c r="K10" s="12">
+        <v>44223</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1163,10 +1298,10 @@
         <v>35</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -1175,7 +1310,19 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>745</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1687</v>
+      </c>
+      <c r="J11" s="15">
+        <v>125</v>
+      </c>
+      <c r="K11" s="12">
+        <v>44207</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1183,19 +1330,31 @@
         <v>36</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>72.3</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>165</v>
+        <v>354</v>
+      </c>
+      <c r="H12">
+        <v>987</v>
+      </c>
+      <c r="I12" s="15">
+        <v>2254</v>
+      </c>
+      <c r="J12" s="15">
+        <v>3698</v>
+      </c>
+      <c r="K12" s="12">
+        <v>44202</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1203,19 +1362,31 @@
         <v>37</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>107.9</v>
+        <v>84.2</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>287</v>
+        <v>561</v>
+      </c>
+      <c r="H13">
+        <v>865</v>
+      </c>
+      <c r="I13" s="15">
+        <v>2415</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1547</v>
+      </c>
+      <c r="K13" s="12">
+        <v>44202</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1223,7 +1394,7 @@
         <v>38</v>
       </c>
       <c r="B14">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <v>1006.2</v>
@@ -1232,10 +1403,22 @@
         <v>38</v>
       </c>
       <c r="F14">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G14">
-        <v>2657</v>
+        <v>2984</v>
+      </c>
+      <c r="H14">
+        <v>1265</v>
+      </c>
+      <c r="I14" s="15">
+        <v>36547</v>
+      </c>
+      <c r="J14" s="15">
+        <v>8742</v>
+      </c>
+      <c r="K14" s="12">
+        <v>44225</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1243,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15">
         <v>874</v>
@@ -1252,10 +1435,22 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G15">
-        <v>2387</v>
+        <v>2674</v>
+      </c>
+      <c r="H15">
+        <v>1745</v>
+      </c>
+      <c r="I15" s="15">
+        <v>98740</v>
+      </c>
+      <c r="J15" s="15">
+        <v>24457</v>
+      </c>
+      <c r="K15" s="12">
+        <v>44217</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1263,7 +1458,7 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>813.7</v>
@@ -1272,13 +1467,25 @@
         <v>27</v>
       </c>
       <c r="F16">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2345</v>
+      </c>
+      <c r="H16">
+        <v>654</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1025</v>
+      </c>
+      <c r="J16" s="15">
+        <v>3576</v>
+      </c>
+      <c r="K16" s="12">
+        <v>44223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1292,18 +1499,33 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H17">
+        <v>205</v>
+      </c>
+      <c r="I17" s="15">
+        <v>10254</v>
+      </c>
+      <c r="J17" s="15">
+        <v>74</v>
+      </c>
+      <c r="K17" s="12">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>4.3</v>
+        <v>13.4</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
@@ -1314,8 +1536,20 @@
       <c r="G18">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>102</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1354</v>
+      </c>
+      <c r="J18" s="15">
+        <v>42</v>
+      </c>
+      <c r="K18" s="12">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1329,13 +1563,25 @@
         <v>42</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>89</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1205</v>
+      </c>
+      <c r="J19" s="15">
+        <v>84</v>
+      </c>
+      <c r="K19" s="12">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1349,30 +1595,57 @@
         <v>43</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74.5</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20" s="15">
+        <v>2410</v>
+      </c>
+      <c r="J20" s="15">
+        <v>987</v>
+      </c>
+      <c r="K20" s="12">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>5.4</v>
+        <v>36.4</v>
       </c>
       <c r="E21" t="s">
         <v>44</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>22.5</v>
+      </c>
+      <c r="H21">
+        <v>120</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1035</v>
+      </c>
+      <c r="J21" s="15">
+        <v>52</v>
+      </c>
+      <c r="K21" s="12">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1390,6 +1663,18 @@
       </c>
       <c r="G22">
         <v>26</v>
+      </c>
+      <c r="H22">
+        <v>1325</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1236</v>
+      </c>
+      <c r="J22" s="15">
+        <v>934</v>
+      </c>
+      <c r="K22" s="12">
+        <v>44208</v>
       </c>
     </row>
   </sheetData>
@@ -1409,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B01515-E094-4376-835D-C6174FB0F342}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1419,35 +1704,34 @@
     <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1459,28 +1743,28 @@
       <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1494,14 +1778,32 @@
       <c r="C3">
         <v>109</v>
       </c>
-      <c r="D3" s="18">
-        <v>387592.71</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="D3" s="12">
+        <v>44264.71</v>
+      </c>
+      <c r="E3" s="15">
         <v>286845.59999999998</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="15">
         <v>1293806.99</v>
+      </c>
+      <c r="G3" s="15">
+        <v>534782</v>
+      </c>
+      <c r="H3">
+        <v>15000</v>
+      </c>
+      <c r="I3" s="15">
+        <v>585020</v>
+      </c>
+      <c r="J3" s="15">
+        <v>54213</v>
+      </c>
+      <c r="K3" s="15">
+        <v>56877</v>
+      </c>
+      <c r="L3" s="15">
+        <v>87463</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1514,14 +1816,32 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="12">
         <v>44223</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="15">
         <v>16677</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="15">
         <v>10576.96</v>
+      </c>
+      <c r="G4" s="15">
+        <v>6452</v>
+      </c>
+      <c r="H4">
+        <v>2450</v>
+      </c>
+      <c r="I4" s="15">
+        <v>12254</v>
+      </c>
+      <c r="J4" s="15">
+        <v>3456</v>
+      </c>
+      <c r="K4" s="15">
+        <v>2557</v>
+      </c>
+      <c r="L4" s="15">
+        <v>3453</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1534,14 +1854,32 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="12">
         <v>44222</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="15">
         <v>2070</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="15">
         <v>2099.96</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1587</v>
+      </c>
+      <c r="H5">
+        <v>1453</v>
+      </c>
+      <c r="I5" s="15">
+        <v>8754</v>
+      </c>
+      <c r="J5" s="15">
+        <v>2103</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1336</v>
+      </c>
+      <c r="L5" s="15">
+        <v>2568</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1554,14 +1892,32 @@
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="12">
         <v>44216</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="15">
         <v>25570.799999999999</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="15">
         <v>25024.42</v>
+      </c>
+      <c r="G6" s="15">
+        <v>12364</v>
+      </c>
+      <c r="H6">
+        <v>3545</v>
+      </c>
+      <c r="I6" s="15">
+        <v>15368</v>
+      </c>
+      <c r="J6" s="15">
+        <v>3654</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1205</v>
+      </c>
+      <c r="L6" s="15">
+        <v>3565</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1574,14 +1930,32 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="12">
         <v>44223</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="15">
         <v>7697.6</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="15">
         <v>6713.5</v>
+      </c>
+      <c r="G7" s="15">
+        <v>3546</v>
+      </c>
+      <c r="H7">
+        <v>1657</v>
+      </c>
+      <c r="I7" s="15">
+        <v>8977</v>
+      </c>
+      <c r="J7" s="15">
+        <v>2054</v>
+      </c>
+      <c r="K7" s="15">
+        <v>2100</v>
+      </c>
+      <c r="L7" s="15">
+        <v>2554</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1594,14 +1968,32 @@
       <c r="C8">
         <v>105</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="12">
         <v>44208</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="15">
         <v>422405.2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="15">
         <v>279017.14</v>
+      </c>
+      <c r="G8" s="15">
+        <v>124980</v>
+      </c>
+      <c r="H8">
+        <v>8042</v>
+      </c>
+      <c r="I8" s="15">
+        <v>256890</v>
+      </c>
+      <c r="J8" s="15">
+        <v>54763</v>
+      </c>
+      <c r="K8" s="15">
+        <v>32458</v>
+      </c>
+      <c r="L8" s="15">
+        <v>45873</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1614,14 +2006,32 @@
       <c r="C9">
         <v>285</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="12">
         <v>44222</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="15">
         <v>1126894.69</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="15">
         <v>613446.93000000005</v>
+      </c>
+      <c r="G9" s="15">
+        <v>466845</v>
+      </c>
+      <c r="H9">
+        <v>14587</v>
+      </c>
+      <c r="I9" s="15">
+        <v>524687</v>
+      </c>
+      <c r="J9" s="15">
+        <v>125460</v>
+      </c>
+      <c r="K9" s="15">
+        <v>98756</v>
+      </c>
+      <c r="L9" s="15">
+        <v>105478</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1634,14 +2044,32 @@
       <c r="C10">
         <v>448</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="12">
         <v>44223</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="15">
         <v>1841936.71</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <v>1357161.86</v>
+      </c>
+      <c r="G10" s="15">
+        <v>697456</v>
+      </c>
+      <c r="H10">
+        <v>18752</v>
+      </c>
+      <c r="I10" s="15">
+        <v>624568</v>
+      </c>
+      <c r="J10" s="15">
+        <v>187752</v>
+      </c>
+      <c r="K10" s="15">
+        <v>122545</v>
+      </c>
+      <c r="L10" s="15">
+        <v>153473</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1654,14 +2082,32 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="12">
         <v>44207</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="15">
         <v>7952</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="15">
         <v>2345.5100000000002</v>
+      </c>
+      <c r="G11" s="15">
+        <v>987</v>
+      </c>
+      <c r="H11">
+        <v>1201</v>
+      </c>
+      <c r="I11" s="15">
+        <v>8354</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1578</v>
+      </c>
+      <c r="K11" s="15">
+        <v>987</v>
+      </c>
+      <c r="L11" s="15">
+        <v>1364</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1674,14 +2120,32 @@
       <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="12">
         <v>44202</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="15">
         <v>37575.5</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="15">
         <v>29230.04</v>
+      </c>
+      <c r="G12" s="15">
+        <v>15698</v>
+      </c>
+      <c r="H12">
+        <v>3545</v>
+      </c>
+      <c r="I12" s="15">
+        <v>14536</v>
+      </c>
+      <c r="J12" s="15">
+        <v>3547</v>
+      </c>
+      <c r="K12" s="15">
+        <v>2987</v>
+      </c>
+      <c r="L12" s="15">
+        <v>3254</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1694,14 +2158,32 @@
       <c r="C13">
         <v>13</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="12">
         <v>44202</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="15">
         <v>49320.75</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="15">
         <v>37901.22</v>
+      </c>
+      <c r="G13" s="15">
+        <v>13547</v>
+      </c>
+      <c r="H13">
+        <v>2688</v>
+      </c>
+      <c r="I13" s="15">
+        <v>10255</v>
+      </c>
+      <c r="J13" s="15">
+        <v>3245</v>
+      </c>
+      <c r="K13" s="15">
+        <v>2567</v>
+      </c>
+      <c r="L13" s="15">
+        <v>2547</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1714,14 +2196,32 @@
       <c r="C14">
         <v>117</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="12">
         <v>44225</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="15">
         <v>468568.2</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="15">
         <v>152282.16</v>
+      </c>
+      <c r="G14" s="15">
+        <v>98742</v>
+      </c>
+      <c r="H14">
+        <v>6574</v>
+      </c>
+      <c r="I14" s="15">
+        <v>28752</v>
+      </c>
+      <c r="J14" s="15">
+        <v>3547</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1325</v>
+      </c>
+      <c r="L14" s="15">
+        <v>4554</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1734,14 +2234,32 @@
       <c r="C15">
         <v>115</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="12">
         <v>44217</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="15">
         <v>455189.3</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="15">
         <v>538203.23</v>
+      </c>
+      <c r="G15" s="15">
+        <v>302445</v>
+      </c>
+      <c r="H15">
+        <v>13543</v>
+      </c>
+      <c r="I15" s="15">
+        <v>498724</v>
+      </c>
+      <c r="J15" s="15">
+        <v>118750</v>
+      </c>
+      <c r="K15" s="15">
+        <v>102554</v>
+      </c>
+      <c r="L15" s="15">
+        <v>143589</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1754,17 +2272,35 @@
       <c r="C16">
         <v>103</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="12">
         <v>44223</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="15">
         <v>373867.54</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="15">
         <v>285813.69</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15">
+        <v>13576</v>
+      </c>
+      <c r="H16">
+        <v>1456</v>
+      </c>
+      <c r="I16" s="15">
+        <v>8987</v>
+      </c>
+      <c r="J16" s="15">
+        <v>2458</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1032</v>
+      </c>
+      <c r="L16" s="15">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1774,17 +2310,35 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="12">
         <v>44207</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="15">
         <v>1313.5</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="15">
         <v>1872.87</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15">
+        <v>674</v>
+      </c>
+      <c r="H17">
+        <v>875</v>
+      </c>
+      <c r="I17" s="15">
+        <v>6544</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1325</v>
+      </c>
+      <c r="K17" s="15">
+        <v>987</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1794,17 +2348,35 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="12">
         <v>44202</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="15">
         <v>985.5</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="15">
         <v>1728.24</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15">
+        <v>542</v>
+      </c>
+      <c r="H18">
+        <v>547</v>
+      </c>
+      <c r="I18" s="15">
+        <v>5476</v>
+      </c>
+      <c r="J18" s="15">
+        <v>1456</v>
+      </c>
+      <c r="K18" s="15">
+        <v>875</v>
+      </c>
+      <c r="L18" s="15">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1814,17 +2386,35 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="12">
         <v>44207</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="15">
         <v>1135</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="15">
         <v>1619.47</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15">
+        <v>684</v>
+      </c>
+      <c r="H19">
+        <v>255</v>
+      </c>
+      <c r="I19" s="15">
+        <v>3554</v>
+      </c>
+      <c r="J19" s="15">
+        <v>2452</v>
+      </c>
+      <c r="K19" s="15">
+        <v>879</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1834,17 +2424,35 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="12">
         <v>44207</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="15">
         <v>3814.25</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="15">
         <v>3674.32</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15">
+        <v>1987</v>
+      </c>
+      <c r="H20">
+        <v>987</v>
+      </c>
+      <c r="I20" s="15">
+        <v>7985</v>
+      </c>
+      <c r="J20" s="15">
+        <v>3482</v>
+      </c>
+      <c r="K20" s="15">
+        <v>874</v>
+      </c>
+      <c r="L20" s="15">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1854,17 +2462,35 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="12">
         <v>44222</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="15">
         <v>1380</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="15">
         <v>1322.56</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="15">
+        <v>752</v>
+      </c>
+      <c r="H21">
+        <v>785</v>
+      </c>
+      <c r="I21" s="15">
+        <v>5987</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1325</v>
+      </c>
+      <c r="K21" s="15">
+        <v>987</v>
+      </c>
+      <c r="L21" s="15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1874,14 +2500,32 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="12">
         <v>44208</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="15">
         <v>0</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="15">
         <v>3090.17</v>
+      </c>
+      <c r="G22" s="15">
+        <v>2034</v>
+      </c>
+      <c r="H22">
+        <v>1246</v>
+      </c>
+      <c r="I22" s="15">
+        <v>9874</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1987</v>
+      </c>
+      <c r="K22" s="15">
+        <v>1252</v>
+      </c>
+      <c r="L22" s="15">
+        <v>1265</v>
       </c>
     </row>
   </sheetData>
@@ -1897,39 +2541,264 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2035E6A-7D83-4D3E-9FF0-0A3D3647DA40}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="12">
+        <v>44252</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12">
+        <v>44206</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="12">
+        <v>44194</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>138.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="12">
+        <v>44197</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="12">
+        <v>44185</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="12">
+        <v>44180</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>142.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="12">
+        <v>44198</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>387.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="12">
+        <v>43842</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="12">
+        <v>44198</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="12">
+        <v>44179</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>287.60000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="12">
+        <v>44184</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="12">
+        <v>44212</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12">
+        <v>44201</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="12">
+        <v>44205</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="12">
+        <v>44167</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="12">
+        <v>44195</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>125.5</v>
       </c>
     </row>
   </sheetData>

--- a/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
+++ b/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A86276-A2E8-457E-82BD-29853683B9AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B852423F-D19C-4A3A-968E-458AE9559FC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdos en Destete" sheetId="1" r:id="rId1"/>
     <sheet name="Cerdos en Engorda" sheetId="2" r:id="rId2"/>
     <sheet name="Muerte" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
   <si>
     <t>Capa</t>
   </si>
@@ -53,128 +62,126 @@
     <t>Kilos llegada a Destete</t>
   </si>
   <si>
+    <t>Alimento consumido</t>
+  </si>
+  <si>
+    <t>Costo Alimento</t>
+  </si>
+  <si>
+    <t>Incio Destete</t>
+  </si>
+  <si>
+    <t>Fin Destete</t>
+  </si>
+  <si>
+    <t>Fecha transpaso a engorda</t>
+  </si>
+  <si>
+    <t>Alimento Consumido</t>
+  </si>
+  <si>
+    <t>Costo Med. Preventivo</t>
+  </si>
+  <si>
+    <t>Costo Med. Correctivo</t>
+  </si>
+  <si>
+    <t>Costo Med. General</t>
+  </si>
+  <si>
+    <t>Ultima Fecha Venta</t>
+  </si>
+  <si>
+    <t>Gasto</t>
+  </si>
+  <si>
+    <t>Cerdo Engorda (Al finalizar venta de capa)</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>No. Muertes</t>
+  </si>
+  <si>
+    <t>Kilos</t>
+  </si>
+  <si>
+    <t>Muerte</t>
+  </si>
+  <si>
+    <t>GV1-32-060820</t>
+  </si>
+  <si>
+    <t>GV1-33-110820</t>
+  </si>
+  <si>
+    <t>GV1-34-170820</t>
+  </si>
+  <si>
+    <t>GV1-40-230920</t>
+  </si>
+  <si>
+    <t>GV4-28-080720</t>
+  </si>
+  <si>
+    <t>GV1-01-010120</t>
+  </si>
+  <si>
+    <t>GV5-34-200820</t>
+  </si>
+  <si>
+    <t>GV5-39-210920</t>
+  </si>
+  <si>
+    <t>GV5-37-070920</t>
+  </si>
+  <si>
+    <t>GV1-08-210220</t>
+  </si>
+  <si>
+    <t>GV1-26-230620</t>
+  </si>
+  <si>
+    <t>GV1-27-300620</t>
+  </si>
+  <si>
+    <t>GV1-30-170720</t>
+  </si>
+  <si>
+    <t>GV1-31-300720</t>
+  </si>
+  <si>
+    <t>GV1-38-120920</t>
+  </si>
+  <si>
+    <t>GV1-41-041020</t>
+  </si>
+  <si>
+    <t>GV1-42-131020</t>
+  </si>
+  <si>
+    <t>GV1-43-201020</t>
+  </si>
+  <si>
+    <t>GV1-44-201020</t>
+  </si>
+  <si>
+    <t>GV4-26-190620</t>
+  </si>
+  <si>
     <t>Kilos Salida de  Destete</t>
-  </si>
-  <si>
-    <t>Alimento consumido</t>
-  </si>
-  <si>
-    <t>Costo Alimento</t>
-  </si>
-  <si>
-    <t>Gastos</t>
-  </si>
-  <si>
-    <t>Incio Destete</t>
-  </si>
-  <si>
-    <t>Fin Destete</t>
-  </si>
-  <si>
-    <t>Fecha transpaso a engorda</t>
-  </si>
-  <si>
-    <t>Alimento Consumido</t>
-  </si>
-  <si>
-    <t>Costo Med. Preventivo</t>
-  </si>
-  <si>
-    <t>Costo Med. Correctivo</t>
-  </si>
-  <si>
-    <t>Costo Med. General</t>
-  </si>
-  <si>
-    <t>Ultima Fecha Venta</t>
-  </si>
-  <si>
-    <t>Gasto</t>
-  </si>
-  <si>
-    <t>Cerdo Engorda (Al finalizar venta de capa)</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>No. Muertes</t>
-  </si>
-  <si>
-    <t>Kilos</t>
-  </si>
-  <si>
-    <t>Muerte</t>
-  </si>
-  <si>
-    <t>GV1-32-060820</t>
-  </si>
-  <si>
-    <t>GV1-33-110820</t>
-  </si>
-  <si>
-    <t>GV1-34-170820</t>
-  </si>
-  <si>
-    <t>GV1-40-230920</t>
-  </si>
-  <si>
-    <t>GV4-28-080720</t>
-  </si>
-  <si>
-    <t>GV1-01-010120</t>
-  </si>
-  <si>
-    <t>GV5-34-200820</t>
-  </si>
-  <si>
-    <t>GV5-39-210920</t>
-  </si>
-  <si>
-    <t>GV5-37-070920</t>
-  </si>
-  <si>
-    <t>GV1-08-210220</t>
-  </si>
-  <si>
-    <t>GV1-26-230620</t>
-  </si>
-  <si>
-    <t>GV1-27-300620</t>
-  </si>
-  <si>
-    <t>GV1-30-170720</t>
-  </si>
-  <si>
-    <t>GV1-31-300720</t>
-  </si>
-  <si>
-    <t>GV1-38-120920</t>
-  </si>
-  <si>
-    <t>GV1-41-041020</t>
-  </si>
-  <si>
-    <t>GV1-42-131020</t>
-  </si>
-  <si>
-    <t>GV1-43-201020</t>
-  </si>
-  <si>
-    <t>GV1-44-201020</t>
-  </si>
-  <si>
-    <t>GV4-26-190620</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +238,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -390,6 +403,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,71 +427,16 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -566,6 +536,27 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="8" tint="-0.499984740745262"/>
@@ -614,6 +605,23 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -638,35 +646,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BBB96-BF27-4FA9-8CD9-EC1B34BB26B9}" name="Tabla1" displayName="Tabla1" ref="A2:C22" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BBB96-BF27-4FA9-8CD9-EC1B34BB26B9}" name="InicioDestete" displayName="InicioDestete" ref="A2:C22" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A2:C22" xr:uid="{39FF341A-BA77-4F10-9E8E-749B29157F36}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5D9BD696-4E5C-4BD6-8BAD-E4D12571B563}" name="Capa"/>
     <tableColumn id="2" xr3:uid="{94A4856C-28C6-4EBC-9BD7-991D3330B270}" name="No. Cerdos llegan a Destete"/>
-    <tableColumn id="3" xr3:uid="{5ABB1250-123D-4A54-A527-3178FF11D096}" name="Kilos llegada a Destete"/>
+    <tableColumn id="3" xr3:uid="{5ABB1250-123D-4A54-A527-3178FF11D096}" name="Kilos llegada a Destete" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22AA869-4768-403C-B464-B8E4B754D479}" name="FinDestete" displayName="FinDestete" ref="E2:K22" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="E2:K22" xr:uid="{FB5E409C-805A-48AC-A2B8-B35110DE321D}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22AA869-4768-403C-B464-B8E4B754D479}" name="FinDestete" displayName="FinDestete" ref="E2:J22" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="E2:J22" xr:uid="{FB5E409C-805A-48AC-A2B8-B35110DE321D}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{70EF5663-423C-4F45-A70A-2A358422DA8D}" name="Capa"/>
     <tableColumn id="2" xr3:uid="{895652A7-CEEC-42F0-8BC3-6278C6F9ADBE}" name="No. Cerdos van Engorda"/>
     <tableColumn id="3" xr3:uid="{3EB72128-7CBC-44BA-8AD2-D95643DD05E3}" name="Kilos Salida de  Destete"/>
     <tableColumn id="4" xr3:uid="{4323ED1A-8C8E-483D-AACB-983164A03627}" name="Alimento consumido"/>
-    <tableColumn id="5" xr3:uid="{B4F7282A-8C79-4490-8FD8-DA1697B9DF33}" name="Costo Alimento" dataDxfId="1" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{905C7F46-1524-418C-899D-56BBE68B3835}" name="Gastos" dataDxfId="0" dataCellStyle="Moneda"/>
-    <tableColumn id="7" xr3:uid="{F49CE574-6190-4632-8562-87F735E19F8F}" name="Fecha transpaso a engorda" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B4F7282A-8C79-4490-8FD8-DA1697B9DF33}" name="Costo Alimento" dataDxfId="7" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{F49CE574-6190-4632-8562-87F735E19F8F}" name="Fecha transpaso a engorda" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35837D8A-11F8-4E6C-9701-8BB123FB48F3}" name="Engorda" displayName="Engorda" ref="A2:L25" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35837D8A-11F8-4E6C-9701-8BB123FB48F3}" name="Engorda" displayName="Engorda" ref="A2:L25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A2:L25" xr:uid="{08B643A4-E53D-4751-BA89-6E4CFD24B581}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EA5987A4-1EC2-4D2E-B641-8812D45E9E82}" name="Capa"/>
@@ -687,8 +694,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3BE2BEB-C803-4857-9F48-D878B407EBB0}" name="MuerteCerdo" displayName="MuerteCerdo" ref="A2:D22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A2:D22" xr:uid="{EDF9D112-F90B-4960-B6AF-354F6347DBC4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3BE2BEB-C803-4857-9F48-D878B407EBB0}" name="MuerteCerdo" displayName="MuerteCerdo" ref="A2:D23" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D23" xr:uid="{EDF9D112-F90B-4960-B6AF-354F6347DBC4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DFFD7055-F0E3-47F1-8B04-FFC32F2996DC}" name="Capa"/>
     <tableColumn id="2" xr3:uid="{B5EA53EC-5E83-4990-A207-367A67A41C84}" name="Fecha"/>
@@ -962,48 +969,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="10" width="21.88671875" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="E1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1021,37 +1027,34 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>115</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="18">
         <v>524</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G3">
         <v>1365</v>
@@ -1062,28 +1065,33 @@
       <c r="I3" s="15">
         <v>125464</v>
       </c>
-      <c r="J3" s="15">
-        <v>34782</v>
-      </c>
-      <c r="K3" s="12">
-        <v>44177.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J3" s="12">
+        <v>44099.71</v>
+      </c>
+      <c r="M3" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>12.297297297297296</v>
+      </c>
+      <c r="N3" s="20">
+        <f>ROUND(M3,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="18">
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>64.5</v>
@@ -1094,28 +1102,33 @@
       <c r="I4" s="15">
         <v>8746</v>
       </c>
-      <c r="J4" s="15">
-        <v>2452</v>
-      </c>
-      <c r="K4" s="12">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J4" s="12">
+        <v>44111</v>
+      </c>
+      <c r="M4" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>10.75</v>
+      </c>
+      <c r="N4" s="20">
+        <f t="shared" ref="N4:N22" si="0">ROUND(M4,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="18">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>16.8</v>
@@ -1126,25 +1139,30 @@
       <c r="I5" s="15">
         <v>3644</v>
       </c>
-      <c r="J5" s="15">
-        <v>587</v>
-      </c>
-      <c r="K5" s="12">
-        <v>44130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J5" s="12">
+        <v>44147</v>
+      </c>
+      <c r="M5" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>8.4</v>
+      </c>
+      <c r="N5" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="18">
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -1158,25 +1176,30 @@
       <c r="I6" s="15">
         <v>128924</v>
       </c>
-      <c r="J6" s="15">
-        <v>3364</v>
-      </c>
-      <c r="K6" s="12">
-        <v>43850</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="12">
+        <v>44074</v>
+      </c>
+      <c r="M6" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>20.400000000000002</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="18">
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1190,28 +1213,33 @@
       <c r="I7" s="15">
         <v>2024</v>
       </c>
-      <c r="J7" s="15">
-        <v>1546</v>
-      </c>
-      <c r="K7" s="12">
-        <v>44223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J7" s="12">
+        <v>43881</v>
+      </c>
+      <c r="M7" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>29.125</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>112</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="18">
         <v>590</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G8">
         <v>1554.3</v>
@@ -1222,28 +1250,33 @@
       <c r="I8" s="15">
         <v>78953</v>
       </c>
-      <c r="J8" s="15">
-        <v>24980</v>
-      </c>
-      <c r="K8" s="12">
-        <v>44208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8" s="12">
+        <v>44113</v>
+      </c>
+      <c r="M8" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>14.259633027522936</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>295</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="18">
         <v>1622.5</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>2540</v>
@@ -1254,28 +1287,33 @@
       <c r="I9" s="15">
         <v>65410</v>
       </c>
-      <c r="J9" s="15">
-        <v>6845</v>
-      </c>
-      <c r="K9" s="12">
-        <v>44222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J9" s="12">
+        <v>44146</v>
+      </c>
+      <c r="M9" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>8.7889273356401389</v>
+      </c>
+      <c r="N9" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>453</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="18">
         <v>2808.6</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G10">
         <v>2987</v>
@@ -1286,25 +1324,30 @@
       <c r="I10" s="15">
         <v>36571</v>
       </c>
-      <c r="J10" s="15">
-        <v>7456</v>
-      </c>
-      <c r="K10" s="12">
-        <v>44223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="12">
+        <v>44135</v>
+      </c>
+      <c r="M10" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>6.5938189845474611</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="18">
         <v>13.5</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1318,28 +1361,33 @@
       <c r="I11" s="15">
         <v>1687</v>
       </c>
-      <c r="J11" s="15">
-        <v>125</v>
-      </c>
-      <c r="K11" s="12">
-        <v>44207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="12">
+        <v>43936</v>
+      </c>
+      <c r="M11" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>15</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="18">
         <v>72.3</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>354</v>
@@ -1350,28 +1398,33 @@
       <c r="I12" s="15">
         <v>2254</v>
       </c>
-      <c r="J12" s="15">
-        <v>3698</v>
-      </c>
-      <c r="K12" s="12">
-        <v>44202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J12" s="12">
+        <v>44053</v>
+      </c>
+      <c r="M12" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>29.5</v>
+      </c>
+      <c r="N12" s="20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="18">
         <v>84.2</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>561</v>
@@ -1382,28 +1435,33 @@
       <c r="I13" s="15">
         <v>2415</v>
       </c>
-      <c r="J13" s="15">
-        <v>1547</v>
-      </c>
-      <c r="K13" s="12">
-        <v>44202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J13" s="12">
+        <v>44069</v>
+      </c>
+      <c r="M13" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>40.071428571428569</v>
+      </c>
+      <c r="N13" s="20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>118</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="18">
         <v>1006.2</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G14">
         <v>2984</v>
@@ -1414,28 +1472,33 @@
       <c r="I14" s="15">
         <v>36547</v>
       </c>
-      <c r="J14" s="15">
-        <v>8742</v>
-      </c>
-      <c r="K14" s="12">
-        <v>44225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J14" s="12">
+        <v>44081</v>
+      </c>
+      <c r="M14" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>25.288135593220339</v>
+      </c>
+      <c r="N14" s="20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>117</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="18">
         <v>874</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G15">
         <v>2674</v>
@@ -1446,25 +1509,30 @@
       <c r="I15" s="15">
         <v>98740</v>
       </c>
-      <c r="J15" s="15">
-        <v>24457</v>
-      </c>
-      <c r="K15" s="12">
-        <v>44217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J15" s="12">
+        <v>44092</v>
+      </c>
+      <c r="M15" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>22.854700854700855</v>
+      </c>
+      <c r="N15" s="20">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>104</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="18">
         <v>813.7</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <v>103</v>
@@ -1478,25 +1546,30 @@
       <c r="I16" s="15">
         <v>1025</v>
       </c>
-      <c r="J16" s="15">
-        <v>3576</v>
-      </c>
-      <c r="K16" s="12">
-        <v>44223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" s="12">
+        <v>44109</v>
+      </c>
+      <c r="M16" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>22.766990291262136</v>
+      </c>
+      <c r="N16" s="20">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="18">
         <v>4.9000000000000004</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1510,28 +1583,33 @@
       <c r="I17" s="15">
         <v>10254</v>
       </c>
-      <c r="J17" s="15">
-        <v>74</v>
-      </c>
-      <c r="K17" s="12">
-        <v>44207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J17" s="12">
+        <v>44115</v>
+      </c>
+      <c r="M17" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N17" s="20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="18">
         <v>13.4</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>15.4</v>
@@ -1542,25 +1620,30 @@
       <c r="I18" s="15">
         <v>1354</v>
       </c>
-      <c r="J18" s="15">
-        <v>42</v>
-      </c>
-      <c r="K18" s="12">
-        <v>44202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J18" s="12">
+        <v>44190</v>
+      </c>
+      <c r="M18" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>7.7</v>
+      </c>
+      <c r="N18" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="18">
         <v>6.2</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1574,31 +1657,36 @@
       <c r="I19" s="15">
         <v>1205</v>
       </c>
-      <c r="J19" s="15">
-        <v>84</v>
-      </c>
-      <c r="K19" s="12">
-        <v>44207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J19" s="12">
+        <v>44146</v>
+      </c>
+      <c r="M19" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>16.5</v>
+      </c>
+      <c r="N19" s="20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="18">
         <v>25.2</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20">
-        <v>74.5</v>
+        <v>50</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -1606,28 +1694,33 @@
       <c r="I20" s="15">
         <v>2410</v>
       </c>
-      <c r="J20" s="15">
-        <v>987</v>
-      </c>
-      <c r="K20" s="12">
-        <v>44207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J20" s="12">
+        <v>44176</v>
+      </c>
+      <c r="M20" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="18">
         <v>36.4</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>22.5</v>
@@ -1638,25 +1731,30 @@
       <c r="I21" s="15">
         <v>1035</v>
       </c>
-      <c r="J21" s="15">
-        <v>52</v>
-      </c>
-      <c r="K21" s="12">
-        <v>44222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J21" s="12">
+        <v>44176</v>
+      </c>
+      <c r="M21" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>11.25</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="18">
         <v>5.4</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1670,17 +1768,22 @@
       <c r="I22" s="15">
         <v>1236</v>
       </c>
-      <c r="J22" s="15">
-        <v>934</v>
-      </c>
-      <c r="K22" s="12">
-        <v>44208</v>
+      <c r="J22" s="12">
+        <v>44064</v>
+      </c>
+      <c r="M22" s="20">
+        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
+        <v>26</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -1695,42 +1798,42 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>3</v>
@@ -1750,29 +1853,29 @@
         <v>4</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="L2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="B3" s="19">
         <v>13411.5</v>
       </c>
       <c r="C3">
@@ -1790,7 +1893,7 @@
       <c r="G3" s="15">
         <v>534782</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="18">
         <v>15000</v>
       </c>
       <c r="I3" s="15">
@@ -1806,11 +1909,11 @@
         <v>87463</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="B4" s="19">
         <v>490.5</v>
       </c>
       <c r="C4">
@@ -1828,7 +1931,7 @@
       <c r="G4" s="15">
         <v>6452</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="18">
         <v>2450</v>
       </c>
       <c r="I4" s="15">
@@ -1844,11 +1947,11 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="B5" s="19">
         <v>60</v>
       </c>
       <c r="C5">
@@ -1866,7 +1969,7 @@
       <c r="G5" s="15">
         <v>1587</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="18">
         <v>1453</v>
       </c>
       <c r="I5" s="15">
@@ -1882,11 +1985,11 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="B6" s="19">
         <v>724.6</v>
       </c>
       <c r="C6">
@@ -1904,7 +2007,7 @@
       <c r="G6" s="15">
         <v>12364</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="18">
         <v>3545</v>
       </c>
       <c r="I6" s="15">
@@ -1920,11 +2023,11 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19">
         <v>226.4</v>
       </c>
       <c r="C7">
@@ -1942,7 +2045,7 @@
       <c r="G7" s="15">
         <v>3546</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="18">
         <v>1657</v>
       </c>
       <c r="I7" s="15">
@@ -1958,11 +2061,11 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="B8" s="19">
         <v>12164</v>
       </c>
       <c r="C8">
@@ -1980,7 +2083,7 @@
       <c r="G8" s="15">
         <v>124980</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="18">
         <v>8042</v>
       </c>
       <c r="I8" s="15">
@@ -1996,11 +2099,11 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="B9" s="19">
         <v>42003.12</v>
       </c>
       <c r="C9">
@@ -2018,7 +2121,7 @@
       <c r="G9" s="15">
         <v>466845</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="18">
         <v>14587</v>
       </c>
       <c r="I9" s="15">
@@ -2034,11 +2137,11 @@
         <v>105478</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="B10" s="19">
         <v>57323.8</v>
       </c>
       <c r="C10">
@@ -2056,7 +2159,7 @@
       <c r="G10" s="15">
         <v>697456</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="18">
         <v>18752</v>
       </c>
       <c r="I10" s="15">
@@ -2072,11 +2175,11 @@
         <v>153473</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
+        <v>33</v>
+      </c>
+      <c r="B11" s="19">
         <v>224</v>
       </c>
       <c r="C11">
@@ -2094,7 +2197,7 @@
       <c r="G11" s="15">
         <v>987</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="18">
         <v>1201</v>
       </c>
       <c r="I11" s="15">
@@ -2110,11 +2213,11 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="B12" s="19">
         <v>1082</v>
       </c>
       <c r="C12">
@@ -2132,7 +2235,7 @@
       <c r="G12" s="15">
         <v>15698</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="18">
         <v>3545</v>
       </c>
       <c r="I12" s="15">
@@ -2148,11 +2251,11 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="B13" s="19">
         <v>1386.5</v>
       </c>
       <c r="C13">
@@ -2170,7 +2273,7 @@
       <c r="G13" s="15">
         <v>13547</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="18">
         <v>2688</v>
       </c>
       <c r="I13" s="15">
@@ -2186,11 +2289,11 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="19">
         <v>13432.2</v>
       </c>
       <c r="C14">
@@ -2208,7 +2311,7 @@
       <c r="G14" s="15">
         <v>98742</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="18">
         <v>6574</v>
       </c>
       <c r="I14" s="15">
@@ -2224,11 +2327,11 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15">
+        <v>37</v>
+      </c>
+      <c r="B15" s="19">
         <v>12982.8</v>
       </c>
       <c r="C15">
@@ -2246,7 +2349,7 @@
       <c r="G15" s="15">
         <v>302445</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="18">
         <v>13543</v>
       </c>
       <c r="I15" s="15">
@@ -2262,11 +2365,11 @@
         <v>143589</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="B16" s="19">
         <v>13033.5</v>
       </c>
       <c r="C16">
@@ -2284,7 +2387,7 @@
       <c r="G16" s="15">
         <v>13576</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="18">
         <v>1456</v>
       </c>
       <c r="I16" s="15">
@@ -2300,11 +2403,11 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
+        <v>38</v>
+      </c>
+      <c r="B17" s="19">
         <v>25</v>
       </c>
       <c r="C17">
@@ -2322,7 +2425,7 @@
       <c r="G17" s="15">
         <v>674</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="18">
         <v>875</v>
       </c>
       <c r="I17" s="15">
@@ -2338,11 +2441,11 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
+        <v>39</v>
+      </c>
+      <c r="B18" s="19">
         <v>41</v>
       </c>
       <c r="C18">
@@ -2360,7 +2463,7 @@
       <c r="G18" s="15">
         <v>542</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="18">
         <v>547</v>
       </c>
       <c r="I18" s="15">
@@ -2376,11 +2479,11 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="B19" s="19">
         <v>32</v>
       </c>
       <c r="C19">
@@ -2398,7 +2501,7 @@
       <c r="G19" s="15">
         <v>684</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="18">
         <v>255</v>
       </c>
       <c r="I19" s="15">
@@ -2414,11 +2517,11 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20">
+        <v>41</v>
+      </c>
+      <c r="B20" s="19">
         <v>68.5</v>
       </c>
       <c r="C20">
@@ -2436,7 +2539,7 @@
       <c r="G20" s="15">
         <v>1987</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="18">
         <v>987</v>
       </c>
       <c r="I20" s="15">
@@ -2452,11 +2555,11 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
+        <v>42</v>
+      </c>
+      <c r="B21" s="19">
         <v>40</v>
       </c>
       <c r="C21">
@@ -2474,7 +2577,7 @@
       <c r="G21" s="15">
         <v>752</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="18">
         <v>785</v>
       </c>
       <c r="I21" s="15">
@@ -2490,11 +2593,11 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
+        <v>43</v>
+      </c>
+      <c r="B22" s="19">
         <v>122</v>
       </c>
       <c r="C22">
@@ -2512,7 +2615,7 @@
       <c r="G22" s="15">
         <v>2034</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="18">
         <v>1246</v>
       </c>
       <c r="I22" s="15">
@@ -2541,270 +2644,851 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2035E6A-7D83-4D3E-9FF0-0A3D3647DA40}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
       <c r="B3" s="12">
-        <v>44252</v>
+        <v>44076</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>97.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>06/08/20</v>
+      </c>
+      <c r="G3" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F3</f>
+        <v>27</v>
+      </c>
+      <c r="H3" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44099.71</v>
+      </c>
+      <c r="I3" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="27">
+        <f t="shared" ref="J3:J23" si="0">H3-F3</f>
+        <v>50.709999999999127</v>
+      </c>
+      <c r="K3">
+        <f>J3+20</f>
+        <v>70.709999999999127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" s="12">
-        <v>44206</v>
+        <v>44165</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="F4" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>06/08/20</v>
+      </c>
+      <c r="G4" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F4</f>
+        <v>116</v>
+      </c>
+      <c r="H4" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44099.71</v>
+      </c>
+      <c r="I4" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="27">
+        <f t="shared" si="0"/>
+        <v>50.709999999999127</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K23" si="1">J4+20</f>
+        <v>70.709999999999127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="12">
+        <v>44165</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>49.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="12">
-        <v>44194</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>138.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>17/08/20</v>
+      </c>
+      <c r="G5" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F5</f>
+        <v>105</v>
+      </c>
+      <c r="H5" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44111</v>
+      </c>
+      <c r="I5" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="27">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="12">
-        <v>44197</v>
+        <v>44133</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="F6" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>23/09/20</v>
+      </c>
+      <c r="G6" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F6</f>
+        <v>36</v>
+      </c>
+      <c r="H6" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44147</v>
+      </c>
+      <c r="I6" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H6</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="12">
+        <v>44199</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>54</v>
+      </c>
+      <c r="F7" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>23/09/20</v>
+      </c>
+      <c r="G7" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F7</f>
+        <v>102</v>
+      </c>
+      <c r="H7" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44147</v>
+      </c>
+      <c r="I7" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <f>H7-F7</f>
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12">
+        <v>44044</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F8" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>08/07/20</v>
+      </c>
+      <c r="G8" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F8</f>
+        <v>24</v>
+      </c>
+      <c r="H8" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44074</v>
+      </c>
+      <c r="I8" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H8</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="12">
+        <v>43941</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>24.5</v>
+      </c>
+      <c r="F9" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>01/01/20</v>
+      </c>
+      <c r="G9" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F9</f>
+        <v>110</v>
+      </c>
+      <c r="H9" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>43881</v>
+      </c>
+      <c r="I9" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="12">
+        <v>44089</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="F10" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>20/08/20</v>
+      </c>
+      <c r="G10" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F10</f>
+        <v>26</v>
+      </c>
+      <c r="H10" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44113</v>
+      </c>
+      <c r="I10" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H10</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="12">
+        <v>44180</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>142.6</v>
+      </c>
+      <c r="F11" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>20/08/20</v>
+      </c>
+      <c r="G11" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F11</f>
+        <v>117</v>
+      </c>
+      <c r="H11" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44113</v>
+      </c>
+      <c r="I11" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="12">
-        <v>44185</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B12" s="12">
+        <v>44129</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="F12" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>21/09/20</v>
+      </c>
+      <c r="G12" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F12</f>
+        <v>34</v>
+      </c>
+      <c r="H12" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44146</v>
+      </c>
+      <c r="I12" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H12</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12">
+        <v>44198</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="F13" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>21/09/20</v>
+      </c>
+      <c r="G13" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F13</f>
+        <v>103</v>
+      </c>
+      <c r="H13" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44146</v>
+      </c>
+      <c r="I13" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="12">
-        <v>44180</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>142.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B14" s="12">
+        <v>44193</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>245</v>
+      </c>
+      <c r="F14" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>07/09/20</v>
+      </c>
+      <c r="G14" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F14</f>
+        <v>112</v>
+      </c>
+      <c r="H14" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44135</v>
+      </c>
+      <c r="I14" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
+        <f>H14-F14</f>
+        <v>54</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="12">
-        <v>44198</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>387.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B15" s="12">
+        <v>43919</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>35.6</v>
+      </c>
+      <c r="F15" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>21/02/20</v>
+      </c>
+      <c r="G15" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F15</f>
+        <v>37</v>
+      </c>
+      <c r="H15" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>43936</v>
+      </c>
+      <c r="I15" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="12">
-        <v>43842</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B16" s="12">
+        <v>44088</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>287.60000000000002</v>
+      </c>
+      <c r="F16" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>23/06/20</v>
+      </c>
+      <c r="G16" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F16</f>
+        <v>83</v>
+      </c>
+      <c r="H16" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44053</v>
+      </c>
+      <c r="I16" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12">
-        <v>44198</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="12">
-        <v>44179</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>287.60000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="12">
-        <v>44184</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="12">
-        <v>44212</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="12">
-        <v>44201</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>86.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="12">
-        <v>44205</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
       <c r="B17" s="12">
-        <v>44167</v>
+        <v>44062</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F17" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>30/06/20</v>
+      </c>
+      <c r="G17" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F17</f>
+        <v>50</v>
+      </c>
+      <c r="H17" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44069</v>
+      </c>
+      <c r="I17" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H17</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12">
-        <v>44195</v>
+        <v>44120</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>125.5</v>
+        <v>48.6</v>
+      </c>
+      <c r="F18" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>17/07/20</v>
+      </c>
+      <c r="G18" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F18</f>
+        <v>91</v>
+      </c>
+      <c r="H18" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44081</v>
+      </c>
+      <c r="I18" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12">
+        <v>44079</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>43</v>
+      </c>
+      <c r="F19" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>30/07/20</v>
+      </c>
+      <c r="G19" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F19</f>
+        <v>37</v>
+      </c>
+      <c r="H19" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44092</v>
+      </c>
+      <c r="I19" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H19</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="12">
+        <v>44113</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>24.6</v>
+      </c>
+      <c r="F20" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>11/08/20</v>
+      </c>
+      <c r="G20" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F20</f>
+        <v>59</v>
+      </c>
+      <c r="H20" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44109</v>
+      </c>
+      <c r="I20" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="27">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="12">
+        <v>44224</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>67</v>
+      </c>
+      <c r="F21" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>04/10/20</v>
+      </c>
+      <c r="G21" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F21</f>
+        <v>116</v>
+      </c>
+      <c r="H21" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44190</v>
+      </c>
+      <c r="I21" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="27">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="12">
+        <v>44165</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+      <c r="F22" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>20/10/20</v>
+      </c>
+      <c r="G22" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F22</f>
+        <v>41</v>
+      </c>
+      <c r="H22" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44176</v>
+      </c>
+      <c r="I22" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H22</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="27">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="12">
+        <v>44226</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>74</v>
+      </c>
+      <c r="F23" t="str">
+        <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
+        <v>20/10/20</v>
+      </c>
+      <c r="G23" s="27">
+        <f>MuerteCerdo[[#This Row],[Fecha]]-F23</f>
+        <v>102</v>
+      </c>
+      <c r="H23" s="12">
+        <f>VLOOKUP(MuerteCerdo[[#This Row],[Capa]],FinDestete[#All],6,FALSE)</f>
+        <v>44176</v>
+      </c>
+      <c r="I23" t="b">
+        <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="27">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
+++ b/GV/FINAL/PrototiposRegistroTablero/PrototRegistroInfoCerdo_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\PrototiposRegistroTablero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B852423F-D19C-4A3A-968E-458AE9559FC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25669F91-A8E6-4545-8645-F987E768AF4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdos en Destete" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
   <si>
     <t>Capa</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Kilos Salida de  Destete</t>
+  </si>
+  <si>
+    <t>Fecha de Entrada</t>
   </si>
 </sst>
 </file>
@@ -415,6 +418,10 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,10 +434,6 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -646,10 +649,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BBB96-BF27-4FA9-8CD9-EC1B34BB26B9}" name="InicioDestete" displayName="InicioDestete" ref="A2:C22" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A2:C22" xr:uid="{39FF341A-BA77-4F10-9E8E-749B29157F36}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{173BBB96-BF27-4FA9-8CD9-EC1B34BB26B9}" name="InicioDestete" displayName="InicioDestete" ref="A2:D22" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A2:D22" xr:uid="{39FF341A-BA77-4F10-9E8E-749B29157F36}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5D9BD696-4E5C-4BD6-8BAD-E4D12571B563}" name="Capa"/>
+    <tableColumn id="4" xr3:uid="{67F273E5-3E90-4C8F-8483-7C5E992DE567}" name="Fecha de Entrada"/>
     <tableColumn id="2" xr3:uid="{94A4856C-28C6-4EBC-9BD7-991D3330B270}" name="No. Cerdos llegan a Destete"/>
     <tableColumn id="3" xr3:uid="{5ABB1250-123D-4A54-A527-3178FF11D096}" name="Kilos llegada a Destete" dataDxfId="11"/>
   </tableColumns>
@@ -658,8 +662,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22AA869-4768-403C-B464-B8E4B754D479}" name="FinDestete" displayName="FinDestete" ref="E2:J22" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="E2:J22" xr:uid="{FB5E409C-805A-48AC-A2B8-B35110DE321D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22AA869-4768-403C-B464-B8E4B754D479}" name="FinDestete" displayName="FinDestete" ref="F2:K22" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="F2:K22" xr:uid="{FB5E409C-805A-48AC-A2B8-B35110DE321D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{70EF5663-423C-4F45-A70A-2A358422DA8D}" name="Capa"/>
     <tableColumn id="2" xr3:uid="{895652A7-CEEC-42F0-8BC3-6278C6F9ADBE}" name="No. Cerdos van Engorda"/>
@@ -673,8 +677,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35837D8A-11F8-4E6C-9701-8BB123FB48F3}" name="Engorda" displayName="Engorda" ref="A2:L25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A2:L25" xr:uid="{08B643A4-E53D-4751-BA89-6E4CFD24B581}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35837D8A-11F8-4E6C-9701-8BB123FB48F3}" name="Engorda" displayName="Engorda" ref="A2:L22" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A2:L22" xr:uid="{08B643A4-E53D-4751-BA89-6E4CFD24B581}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EA5987A4-1EC2-4D2E-B641-8812D45E9E82}" name="Capa"/>
     <tableColumn id="2" xr3:uid="{EE7561E2-8198-49F7-8B5A-6EBB91D33612}" name="Kilos Vendidos"/>
@@ -969,821 +973,766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="12">
+        <v>44049</v>
+      </c>
+      <c r="C3">
         <v>115</v>
       </c>
-      <c r="C3" s="18">
+      <c r="D3" s="18">
         <v>524</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>111</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1365</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1205</v>
       </c>
-      <c r="I3" s="15">
+      <c r="J3" s="15">
         <v>125464</v>
       </c>
-      <c r="J3" s="12">
+      <c r="K3" s="12">
         <v>44099.71</v>
       </c>
-      <c r="M3" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>12.297297297297296</v>
-      </c>
-      <c r="N3" s="20">
-        <f>ROUND(M3,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
+        <v>44060</v>
+      </c>
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="C4" s="18">
+      <c r="D4" s="18">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>64.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>897</v>
       </c>
-      <c r="I4" s="15">
+      <c r="J4" s="15">
         <v>8746</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="12">
         <v>44111</v>
       </c>
-      <c r="M4" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>10.75</v>
-      </c>
-      <c r="N4" s="20">
-        <f t="shared" ref="N4:N22" si="0">ROUND(M4,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
+        <v>44097</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5" s="18">
+      <c r="D5" s="18">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>16.8</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>634</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="15">
         <v>3644</v>
       </c>
-      <c r="J5" s="12">
+      <c r="K5" s="12">
         <v>44147</v>
       </c>
-      <c r="M5" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>8.4</v>
-      </c>
-      <c r="N5" s="20">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
+        <v>44020</v>
+      </c>
+      <c r="C6">
         <v>9</v>
       </c>
-      <c r="C6" s="18">
+      <c r="D6" s="18">
         <v>57</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>142.80000000000001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1020</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="15">
         <v>128924</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <v>44074</v>
       </c>
-      <c r="M6" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>20.400000000000002</v>
-      </c>
-      <c r="N6" s="20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="12">
+        <v>43831</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="C7" s="18">
+      <c r="D7" s="18">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>58.25</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>354</v>
       </c>
-      <c r="I7" s="15">
+      <c r="J7" s="15">
         <v>2024</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>43881</v>
       </c>
-      <c r="M7" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>29.125</v>
-      </c>
-      <c r="N7" s="20">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
+        <v>44063</v>
+      </c>
+      <c r="C8">
         <v>112</v>
       </c>
-      <c r="C8" s="18">
+      <c r="D8" s="18">
         <v>590</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>109</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1554.3</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1354</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="15">
         <v>78953</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <v>44113</v>
       </c>
-      <c r="M8" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>14.259633027522936</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
+        <v>44095</v>
+      </c>
+      <c r="C9">
         <v>295</v>
       </c>
-      <c r="C9" s="18">
+      <c r="D9" s="18">
         <v>1622.5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>289</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2540</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2140</v>
       </c>
-      <c r="I9" s="15">
+      <c r="J9" s="15">
         <v>65410</v>
       </c>
-      <c r="J9" s="12">
+      <c r="K9" s="12">
         <v>44146</v>
       </c>
-      <c r="M9" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>8.7889273356401389</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="12">
+        <v>44081</v>
+      </c>
+      <c r="C10">
         <v>453</v>
       </c>
-      <c r="C10" s="18">
+      <c r="D10" s="18">
         <v>2808.6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>453</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2987</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3541</v>
       </c>
-      <c r="I10" s="15">
+      <c r="J10" s="15">
         <v>36571</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="12">
         <v>44135</v>
       </c>
-      <c r="M10" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>6.5938189845474611</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
+        <v>43882</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="D11" s="18">
         <v>13.5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>745</v>
       </c>
-      <c r="I11" s="15">
+      <c r="J11" s="15">
         <v>1687</v>
       </c>
-      <c r="J11" s="12">
+      <c r="K11" s="12">
         <v>43936</v>
       </c>
-      <c r="M11" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>15</v>
-      </c>
-      <c r="N11" s="20">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
+        <v>44005</v>
+      </c>
+      <c r="C12">
         <v>12</v>
       </c>
-      <c r="C12" s="18">
+      <c r="D12" s="18">
         <v>72.3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>354</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>987</v>
       </c>
-      <c r="I12" s="15">
+      <c r="J12" s="15">
         <v>2254</v>
       </c>
-      <c r="J12" s="12">
+      <c r="K12" s="12">
         <v>44053</v>
       </c>
-      <c r="M12" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>29.5</v>
-      </c>
-      <c r="N12" s="20">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
+        <v>44012</v>
+      </c>
+      <c r="C13">
         <v>14</v>
       </c>
-      <c r="C13" s="18">
+      <c r="D13" s="18">
         <v>84.2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>14</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>561</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>865</v>
       </c>
-      <c r="I13" s="15">
+      <c r="J13" s="15">
         <v>2415</v>
       </c>
-      <c r="J13" s="12">
+      <c r="K13" s="12">
         <v>44069</v>
       </c>
-      <c r="M13" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>40.071428571428569</v>
-      </c>
-      <c r="N13" s="20">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
+        <v>44029</v>
+      </c>
+      <c r="C14">
         <v>118</v>
       </c>
-      <c r="C14" s="18">
+      <c r="D14" s="18">
         <v>1006.2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>118</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2984</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1265</v>
       </c>
-      <c r="I14" s="15">
+      <c r="J14" s="15">
         <v>36547</v>
       </c>
-      <c r="J14" s="12">
+      <c r="K14" s="12">
         <v>44081</v>
       </c>
-      <c r="M14" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>25.288135593220339</v>
-      </c>
-      <c r="N14" s="20">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="12">
+        <v>44042</v>
+      </c>
+      <c r="C15">
         <v>117</v>
       </c>
-      <c r="C15" s="18">
+      <c r="D15" s="18">
         <v>874</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>117</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2674</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1745</v>
       </c>
-      <c r="I15" s="15">
+      <c r="J15" s="15">
         <v>98740</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <v>44092</v>
       </c>
-      <c r="M15" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>22.854700854700855</v>
-      </c>
-      <c r="N15" s="20">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="12">
+        <v>44054</v>
+      </c>
+      <c r="C16">
         <v>104</v>
       </c>
-      <c r="C16" s="18">
+      <c r="D16" s="18">
         <v>813.7</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>103</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2345</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>654</v>
       </c>
-      <c r="I16" s="15">
+      <c r="J16" s="15">
         <v>1025</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="12">
         <v>44109</v>
       </c>
-      <c r="M16" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>22.766990291262136</v>
-      </c>
-      <c r="N16" s="20">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="12">
+        <v>44086</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="C17" s="18">
+      <c r="D17" s="18">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>38</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>18.899999999999999</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>205</v>
       </c>
-      <c r="I17" s="15">
+      <c r="J17" s="15">
         <v>10254</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="12">
         <v>44115</v>
       </c>
-      <c r="M17" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="N17" s="20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="12">
+        <v>44108</v>
+      </c>
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="C18" s="18">
+      <c r="D18" s="18">
         <v>13.4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>39</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>15.4</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>102</v>
       </c>
-      <c r="I18" s="15">
+      <c r="J18" s="15">
         <v>1354</v>
       </c>
-      <c r="J18" s="12">
+      <c r="K18" s="12">
         <v>44190</v>
       </c>
-      <c r="M18" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>7.7</v>
-      </c>
-      <c r="N18" s="20">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="12">
+        <v>44116</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="C19" s="18">
+      <c r="D19" s="18">
         <v>6.2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>16.5</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>89</v>
       </c>
-      <c r="I19" s="15">
+      <c r="J19" s="15">
         <v>1205</v>
       </c>
-      <c r="J19" s="12">
+      <c r="K19" s="12">
         <v>44146</v>
       </c>
-      <c r="M19" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>16.5</v>
-      </c>
-      <c r="N19" s="20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="12">
+        <v>44124</v>
+      </c>
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="C20" s="18">
+      <c r="D20" s="18">
         <v>25.2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>41</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>50</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>100</v>
       </c>
-      <c r="I20" s="15">
+      <c r="J20" s="15">
         <v>2410</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="12">
         <v>44176</v>
       </c>
-      <c r="M20" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="N20" s="20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="12">
+        <v>44124</v>
+      </c>
+      <c r="C21">
         <v>4</v>
       </c>
-      <c r="C21" s="18">
+      <c r="D21" s="18">
         <v>36.4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>42</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>22.5</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>120</v>
       </c>
-      <c r="I21" s="15">
+      <c r="J21" s="15">
         <v>1035</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12">
         <v>44176</v>
       </c>
-      <c r="M21" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>11.25</v>
-      </c>
-      <c r="N21" s="20">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="12">
+        <v>44001</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="C22" s="18">
+      <c r="D22" s="18">
         <v>5.4</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>26</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1325</v>
       </c>
-      <c r="I22" s="15">
+      <c r="J22" s="15">
         <v>1236</v>
       </c>
-      <c r="J22" s="12">
+      <c r="K22" s="12">
         <v>44064</v>
       </c>
-      <c r="M22" s="20">
-        <f>FinDestete[[#This Row],[Kilos Salida de  Destete]]/FinDestete[[#This Row],[No. Cerdos van Engorda]]</f>
-        <v>26</v>
-      </c>
-      <c r="N22" s="20">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -1797,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B01515-E094-4376-835D-C6174FB0F342}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1758,7 @@
     <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.5703125" style="15" bestFit="1" customWidth="1"/>
@@ -1818,20 +1767,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2646,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2035E6A-7D83-4D3E-9FF0-0A3D3647DA40}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,19 +2605,21 @@
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2684,7 +2635,7 @@
       <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2703,7 +2654,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>06/08/20</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F3</f>
         <v>27</v>
       </c>
@@ -2715,7 +2666,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="23">
         <f t="shared" ref="J3:J23" si="0">H3-F3</f>
         <v>50.709999999999127</v>
       </c>
@@ -2741,7 +2692,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>06/08/20</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F4</f>
         <v>116</v>
       </c>
@@ -2753,7 +2704,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="23">
         <f t="shared" si="0"/>
         <v>50.709999999999127</v>
       </c>
@@ -2779,7 +2730,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>17/08/20</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F5</f>
         <v>105</v>
       </c>
@@ -2791,7 +2742,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="23">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -2817,7 +2768,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>23/09/20</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F6</f>
         <v>36</v>
       </c>
@@ -2829,7 +2780,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H6</f>
         <v>1</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -2855,7 +2806,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>23/09/20</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F7</f>
         <v>102</v>
       </c>
@@ -2867,7 +2818,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="23">
         <f>H7-F7</f>
         <v>50</v>
       </c>
@@ -2893,7 +2844,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>08/07/20</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F8</f>
         <v>24</v>
       </c>
@@ -2905,7 +2856,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="23">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -2931,7 +2882,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>01/01/20</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F9</f>
         <v>110</v>
       </c>
@@ -2943,7 +2894,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -2969,7 +2920,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>20/08/20</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F10</f>
         <v>26</v>
       </c>
@@ -2981,7 +2932,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H10</f>
         <v>1</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -3007,7 +2958,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>20/08/20</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F11</f>
         <v>117</v>
       </c>
@@ -3019,7 +2970,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -3045,7 +2996,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>21/09/20</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F12</f>
         <v>34</v>
       </c>
@@ -3057,7 +3008,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H12</f>
         <v>1</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="23">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -3083,7 +3034,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>21/09/20</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F13</f>
         <v>103</v>
       </c>
@@ -3095,7 +3046,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="23">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -3121,7 +3072,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>07/09/20</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F14</f>
         <v>112</v>
       </c>
@@ -3133,7 +3084,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="23">
         <f>H14-F14</f>
         <v>54</v>
       </c>
@@ -3159,7 +3110,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>21/02/20</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F15</f>
         <v>37</v>
       </c>
@@ -3171,7 +3122,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H15</f>
         <v>1</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="23">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -3197,7 +3148,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>23/06/20</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F16</f>
         <v>83</v>
       </c>
@@ -3209,7 +3160,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="23">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -3235,7 +3186,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>30/06/20</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F17</f>
         <v>50</v>
       </c>
@@ -3247,7 +3198,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H17</f>
         <v>1</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="23">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -3273,7 +3224,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>17/07/20</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F18</f>
         <v>91</v>
       </c>
@@ -3285,7 +3236,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="23">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -3311,7 +3262,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>30/07/20</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F19</f>
         <v>37</v>
       </c>
@@ -3323,7 +3274,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H19</f>
         <v>1</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -3349,7 +3300,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>11/08/20</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F20</f>
         <v>59</v>
       </c>
@@ -3361,7 +3312,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="23">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -3387,7 +3338,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>04/10/20</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F21</f>
         <v>116</v>
       </c>
@@ -3399,7 +3350,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="23">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
@@ -3425,7 +3376,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>20/10/20</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F22</f>
         <v>41</v>
       </c>
@@ -3437,7 +3388,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H22</f>
         <v>1</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="23">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -3463,7 +3414,7 @@
         <f>MID(MuerteCerdo[[#This Row],[Capa]],8,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],10,2)&amp;"/"&amp;MID(MuerteCerdo[[#This Row],[Capa]],12,2)</f>
         <v>20/10/20</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="23">
         <f>MuerteCerdo[[#This Row],[Fecha]]-F23</f>
         <v>102</v>
       </c>
@@ -3475,7 +3426,7 @@
         <f>MuerteCerdo[[#This Row],[Fecha]]&lt;H23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="23">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
